--- a/Excels/Character_角色表.xlsx
+++ b/Excels/Character_角色表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBCDD7F-8F1B-4FE9-91F9-3FF5D63F64AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6478D8E-854A-4178-AE43-D32E917136AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>int</t>
   </si>
@@ -59,6 +59,33 @@
   </si>
   <si>
     <t>CharacterName0004</t>
+  </si>
+  <si>
+    <t>CharacterName0005</t>
+  </si>
+  <si>
+    <t>CharacterName0006</t>
+  </si>
+  <si>
+    <t>CharacterName0007</t>
+  </si>
+  <si>
+    <t>CharacterName0008</t>
+  </si>
+  <si>
+    <t>CharacterName0009</t>
+  </si>
+  <si>
+    <t>CharacterName0010</t>
+  </si>
+  <si>
+    <t>CharacterName0011</t>
+  </si>
+  <si>
+    <t>CharacterName0012</t>
+  </si>
+  <si>
+    <t>CharacterName0013</t>
   </si>
 </sst>
 </file>
@@ -351,7 +378,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -434,24 +461,77 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>

--- a/Excels/Character_角色表.xlsx
+++ b/Excels/Character_角色表.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6478D8E-854A-4178-AE43-D32E917136AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5984108D-486D-4CCB-9929-1A90C3EB6FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -378,7 +389,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>

--- a/Excels/Character_角色表.xlsx
+++ b/Excels/Character_角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5984108D-486D-4CCB-9929-1A90C3EB6FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD92ACC1-E744-46F6-A49D-689AAF89B703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -492,16 +492,16 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">

--- a/Excels/Character_角色表.xlsx
+++ b/Excels/Character_角色表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaApp\Editor_Win64\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD92ACC1-E744-46F6-A49D-689AAF89B703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B303D52-EB40-4287-8C68-BA4037CF05CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -545,7 +545,9 @@
       </c>
     </row>
     <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
